--- a/medicine/Enfance/Langelot_et_l'Inconnue/Langelot_et_l'Inconnue.xlsx
+++ b/medicine/Enfance/Langelot_et_l'Inconnue/Langelot_et_l'Inconnue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Inconnue</t>
+          <t>Langelot_et_l'Inconnue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Langelot et l'Inconnue est le dixième roman de la série Langelot, écrite par le Lieutenant X. Ce roman a été édité pour la première fois en 1968, dans la bibliothèque verte, et porte le numéro 363 de la collection.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Inconnue</t>
+          <t>Langelot_et_l'Inconnue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Personnages principaux
 Langelot : jeune agent secret du SNIF ; garde du corps de Graziella Andronymos
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Inconnue</t>
+          <t>Langelot_et_l'Inconnue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,7 +573,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un soir, Langelot est appelé à exécuter une mission d'urgence : protéger une dénommée Graziella Andronymos, dont il ne connaît rien, qui serait en grand danger.
 Le jeune agent se poste d'abord dans la rue. Notant que l'appartement de sa protégée est inoccupé, il entre chez elle pour reconnaître les lieux. Alors qu'il achève sa fouille, quatre autres individus font à leur tour leur entrée dans l'appartement, s'appelant les uns les autres par des numéros. Langelot assomme le numéro 4 lorsqu'il entre dans la salle de bain : l'homme porte un bas sur le visage. Langelot le lui emprunte. Le voici « numéro 4 » et participant à l'enlèvement de la demoiselle Andronymos, dont il assume la protection. L'équipe se rend à Honfleur, pour prendre un petit bateau à moteur jusqu'à l'îlot et au phare de la Belle-Vieille.
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Inconnue</t>
+          <t>Langelot_et_l'Inconnue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1968 - Hachette, Bibliothèque verte (français, version originale). Illustré par Maurice Paulin.
 1980 - Hachette, Bibliothèque verte. Illustré par Maurice Paulin, nouvelle couverture d'un illustrateur non cité.
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Langelot_et_l%27Inconnue</t>
+          <t>Langelot_et_l'Inconnue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,7 +644,9 @@
           <t>Autour du roman</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>C'est la première apparition du colonel Chibani, présent dans trois autres romans de la série : Langelot et les Crocodiles, Langelot et l'Avion détourné et Langelot kidnappé.
 Dans Langelot contre 6 (même année, 1968), une note de bas de page mentionne par erreur un Langelot fait de la coopération, qui devait être le titre primitif de Langelot et l'Inconnue. Il est possible que Vladimir Volkoff ait composé les deux romans en même temps et que la note figurant à la page 66 du second ait conservé la référence d'un titre encore provisoire.
@@ -638,7 +658,7 @@
 L'ambassade du pays du Colonel Chibani est au 50 rue de Lille.
 Le nom de Georgette, « Bongo », fait écho à celui du Président de la république du Gabon, Albert-Bernard Bongo, qui accède au pouvoir le 2 décembre 1967. Dans le roman, Georgette est née au Sénégal.
 Les navires Bonjour et Bonsoir se retrouvent au phare de la Belle-Vieille, près d'Honfleur. Celui-ci n'existe pas. Un phare de la Vieille est placé dans le raz de Sein.
-L’amphithéâtre Michelet existe à la Sorbonne[1].</t>
+L’amphithéâtre Michelet existe à la Sorbonne.</t>
         </is>
       </c>
     </row>
